--- a/biology/Zoologie/Chlorospingus/Chlorospingus.xlsx
+++ b/biology/Zoologie/Chlorospingus/Chlorospingus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Chlorospingus est un genre de passereaux de la famille des Passerellidae dont les espèces ont pour nom normalisé (CINFO) Chlorospin[1].
+Chlorospingus est un genre de passereaux de la famille des Passerellidae dont les espèces ont pour nom normalisé (CINFO) Chlorospin.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ornithologues soupçonnent depuis longtemps que C. ophtalmicus est un complexe d'espèces cryptiques, et qu'il contient probablement plusieurs espèces distinctes. Alan P. Peterson notamment reconnaît comme espèces séparées : C. flavopectus, C. postocularis, C. wetmorei, C. albifrons, C. dwighti. Les 21 autres sous-espèces sont attribuées à C. flavopectus.
 À la suite d'études ADN, DaCosta et al. (2009) et Klicka et al. (2007) ont démontré que les Chlorospingus appartenaient très clairement au clade des Emberizidae et non à celui des Thraupidae.
@@ -544,7 +558,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Chlorospingus flavopectus – Chlorospin des buissons
